--- a/apps/load_data/2019/07/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/07/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0719\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2019\HHY0719\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F0CCD5-DD60-4C6D-A8FF-DC60F19FE81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A106A1C-D1D3-4FF6-ABAF-EEB5C3ADFF2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$284</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$284</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12142" uniqueCount="3380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12120" uniqueCount="3377">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7360,9 +7361,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8674,9 +8672,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -9035,9 +9030,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10168,7 +10160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11008,10 +11000,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD261" sqref="AC188:AD261"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45873,12 +45867,7 @@
       <c r="AB188" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC188" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD188" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC188" s="3"/>
       <c r="AF188" s="1" t="s">
         <v>106</v>
       </c>
@@ -45931,7 +45920,7 @@
         <v>19</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -45943,10 +45932,10 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -45961,13 +45950,13 @@
         <v>159</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BS188" s="3">
         <v>36225</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -45988,19 +45977,19 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CD188" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CD188" s="1" t="s">
+      <c r="CE188" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46038,13 +46027,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46076,12 +46065,7 @@
       <c r="AB189" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="AC189" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD189" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC189" s="3"/>
       <c r="AF189" s="1" t="s">
         <v>106</v>
       </c>
@@ -46128,7 +46112,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB189" s="1">
         <v>7</v>
@@ -46137,7 +46121,7 @@
         <v>19</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46149,10 +46133,10 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46164,13 +46148,13 @@
         <v>102</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BS189" s="3">
         <v>36949</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46194,19 +46178,19 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>2104</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CG189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46244,13 +46228,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46282,12 +46266,7 @@
       <c r="AB190" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="AC190" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD190" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC190" s="3"/>
       <c r="AF190" s="1" t="s">
         <v>106</v>
       </c>
@@ -46334,7 +46313,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB190" s="1">
         <v>7</v>
@@ -46343,7 +46322,7 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46355,10 +46334,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -46370,13 +46349,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BS190" s="3">
         <v>36825</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46400,19 +46379,19 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46450,13 +46429,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46485,12 +46464,7 @@
       <c r="AA191" s="1">
         <v>0</v>
       </c>
-      <c r="AC191" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD191" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC191" s="3"/>
       <c r="AF191" s="1" t="s">
         <v>106</v>
       </c>
@@ -46540,7 +46514,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BB191" s="1">
         <v>7</v>
@@ -46549,7 +46523,7 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46561,7 +46535,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>981</v>
@@ -46573,7 +46547,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46591,16 +46565,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>986</v>
@@ -46641,13 +46615,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46679,12 +46653,7 @@
       <c r="AB192" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC192" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD192" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC192" s="3"/>
       <c r="AF192" s="1" t="s">
         <v>106</v>
       </c>
@@ -46734,7 +46703,7 @@
         <v>101</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BB192" s="1">
         <v>7</v>
@@ -46743,7 +46712,7 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46755,7 +46724,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1075</v>
@@ -46764,7 +46733,7 @@
         <v>118</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -46785,13 +46754,13 @@
         <v>694</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1081</v>
@@ -46832,13 +46801,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46867,12 +46836,7 @@
       <c r="AA193" s="1">
         <v>0</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>106</v>
       </c>
@@ -46922,7 +46886,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BB193" s="1">
         <v>7</v>
@@ -46931,7 +46895,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -46943,10 +46907,10 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -46955,7 +46919,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -46973,19 +46937,19 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="CD193" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="CE193" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="CD193" s="1" t="s">
-        <v>2511</v>
-      </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -47023,13 +46987,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47064,12 +47028,7 @@
       <c r="AA194" s="1">
         <v>0</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -47116,7 +47075,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB194" s="1">
         <v>7</v>
@@ -47125,7 +47084,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47137,10 +47096,10 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47152,13 +47111,13 @@
         <v>119</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BS194" s="3">
         <v>35243</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47176,19 +47135,19 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47226,13 +47185,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47261,12 +47220,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -47316,7 +47270,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BB195" s="1">
         <v>7</v>
@@ -47325,7 +47279,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47337,7 +47291,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>2407</v>
@@ -47349,7 +47303,7 @@
         <v>105</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47367,16 +47321,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>2413</v>
@@ -47417,13 +47371,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47452,12 +47406,7 @@
       <c r="AA196" s="1">
         <v>0</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -47507,7 +47456,7 @@
         <v>101</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BB196" s="1">
         <v>7</v>
@@ -47516,7 +47465,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47528,7 +47477,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>981</v>
@@ -47543,7 +47492,7 @@
         <v>159</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47561,16 +47510,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>986</v>
@@ -47611,13 +47560,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47646,12 +47595,7 @@
       <c r="AA197" s="1">
         <v>0</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47698,7 +47642,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BB197" s="1">
         <v>7</v>
@@ -47707,7 +47651,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47719,7 +47663,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>466</v>
@@ -47734,13 +47678,13 @@
         <v>219</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BS197" s="3">
         <v>34307</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47758,16 +47702,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>473</v>
@@ -47808,13 +47752,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47846,12 +47790,7 @@
       <c r="AA198" s="1">
         <v>0</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>106</v>
       </c>
@@ -47901,7 +47840,7 @@
         <v>101</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BB198" s="1">
         <v>7</v>
@@ -47910,7 +47849,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47922,7 +47861,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>382</v>
@@ -47934,7 +47873,7 @@
         <v>105</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47955,16 +47894,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>390</v>
@@ -48005,13 +47944,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48040,12 +47979,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>106</v>
       </c>
@@ -48092,7 +48026,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BB199" s="1">
         <v>7</v>
@@ -48101,7 +48035,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48113,10 +48047,10 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48128,13 +48062,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BS199" s="3">
         <v>35950</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48152,19 +48086,19 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>1899</v>
       </c>
       <c r="CE199" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CG199" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CG199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>130</v>
@@ -48202,10 +48136,10 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>1716</v>
@@ -48286,7 +48220,7 @@
         <v>1287</v>
       </c>
       <c r="CE200" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="201" spans="1:87" x14ac:dyDescent="0.25">
@@ -48321,13 +48255,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48408,7 +48342,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BB201" s="1">
         <v>7</v>
@@ -48417,7 +48351,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48429,7 +48363,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1177</v>
@@ -48444,7 +48378,7 @@
         <v>159</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48462,16 +48396,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1183</v>
@@ -48512,13 +48446,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48593,7 +48527,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BB202" s="1">
         <v>7</v>
@@ -48602,7 +48536,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48614,10 +48548,10 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>118</v>
@@ -48629,13 +48563,13 @@
         <v>219</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BS202" s="3">
         <v>36099</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48653,19 +48587,19 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CG202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>130</v>
@@ -48703,13 +48637,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48784,7 +48718,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BB203" s="1">
         <v>7</v>
@@ -48793,7 +48727,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48805,10 +48739,10 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -48820,13 +48754,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BS203" s="3">
         <v>37735</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48844,19 +48778,19 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -48894,13 +48828,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48978,7 +48912,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BB204" s="1">
         <v>7</v>
@@ -48987,7 +48921,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -48999,7 +48933,7 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>382</v>
@@ -49011,7 +48945,7 @@
         <v>105</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49029,16 +48963,16 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>905</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>390</v>
@@ -49079,13 +49013,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49118,7 +49052,7 @@
         <v>106</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="AH205" s="1" t="s">
         <v>2019</v>
@@ -49163,7 +49097,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BB205" s="1">
         <v>7</v>
@@ -49172,7 +49106,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49184,7 +49118,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1177</v>
@@ -49196,7 +49130,7 @@
         <v>105</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49217,13 +49151,13 @@
         <v>1663</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1183</v>
@@ -49264,13 +49198,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49348,7 +49282,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BB206" s="1">
         <v>7</v>
@@ -49357,7 +49291,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49369,10 +49303,10 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49384,13 +49318,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BS206" s="3">
         <v>43602</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49414,13 +49348,13 @@
         <v>995</v>
       </c>
       <c r="CE206" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="CG206" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49458,13 +49392,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49542,7 +49476,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BB207" s="1">
         <v>7</v>
@@ -49551,7 +49485,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49563,7 +49497,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1204</v>
@@ -49575,7 +49509,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49593,16 +49527,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1210</v>
@@ -49643,13 +49577,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49688,7 +49622,7 @@
         <v>42247</v>
       </c>
       <c r="AD208" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="AF208" s="1" t="s">
         <v>106</v>
@@ -49742,7 +49676,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49754,10 +49688,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -49769,13 +49703,13 @@
         <v>219</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="BS208" s="3">
         <v>36580</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49796,7 +49730,7 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="CD208" s="1" t="s">
         <v>294</v>
@@ -49805,10 +49739,10 @@
         <v>1694</v>
       </c>
       <c r="CG208" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CH208" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -49846,13 +49780,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49933,7 +49867,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49945,7 +49879,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>1983</v>
@@ -49960,13 +49894,13 @@
         <v>119</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BS209" s="3">
         <v>37747</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49990,10 +49924,10 @@
         <v>681</v>
       </c>
       <c r="CE209" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>1990</v>
@@ -50034,13 +49968,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50124,7 +50058,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50136,7 +50070,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1075</v>
@@ -50148,7 +50082,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50166,16 +50100,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>1081</v>
@@ -50216,13 +50150,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2703</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -50306,7 +50240,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -50318,7 +50252,7 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>981</v>
@@ -50330,7 +50264,7 @@
         <v>105</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -50348,16 +50282,16 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>986</v>
@@ -50398,13 +50332,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -50485,7 +50419,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50497,10 +50431,10 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>118</v>
@@ -50512,13 +50446,13 @@
         <v>102</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BS212" s="3">
         <v>37334</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50539,16 +50473,16 @@
         <v>526</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CG212" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CG212" s="1" t="s">
+      <c r="CH212" s="1" t="s">
         <v>2721</v>
-      </c>
-      <c r="CH212" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="CI212" s="1" t="s">
         <v>130</v>
@@ -50586,13 +50520,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50673,7 +50607,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50685,10 +50619,10 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>118</v>
@@ -50700,13 +50634,13 @@
         <v>102</v>
       </c>
       <c r="BR213" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BS213" s="3">
         <v>37904</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50727,16 +50661,16 @@
         <v>995</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="CG213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>130</v>
@@ -50774,13 +50708,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50861,7 +50795,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50873,7 +50807,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>382</v>
@@ -50888,13 +50822,13 @@
         <v>119</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BS214" s="3">
         <v>36111</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50912,16 +50846,16 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="CD214" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="CE214" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CG214" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>390</v>
@@ -50962,13 +50896,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2746</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2747</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -51049,7 +50983,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -51061,10 +50995,10 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -51076,13 +51010,13 @@
         <v>119</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BS215" s="3">
         <v>37785</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -51100,19 +51034,19 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="CG215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>130</v>
@@ -51150,13 +51084,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -51240,7 +51174,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -51252,10 +51186,10 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>118</v>
@@ -51264,7 +51198,7 @@
         <v>105</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51285,16 +51219,16 @@
         <v>1319</v>
       </c>
       <c r="CD216" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CG216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -51332,13 +51266,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -51416,7 +51350,7 @@
         <v>101</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BB217" s="1">
         <v>7</v>
@@ -51425,7 +51359,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51437,7 +51371,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1075</v>
@@ -51449,7 +51383,7 @@
         <v>105</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51467,16 +51401,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2778</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2779</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1081</v>
@@ -51517,13 +51451,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2781</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2782</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51601,7 +51535,7 @@
         <v>101</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BB218" s="1">
         <v>7</v>
@@ -51610,7 +51544,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51622,7 +51556,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>1177</v>
@@ -51634,7 +51568,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51652,16 +51586,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="CE218" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CG218" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>1183</v>
@@ -51702,13 +51636,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51786,7 +51720,7 @@
         <v>101</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BB219" s="1">
         <v>7</v>
@@ -51795,7 +51729,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51807,7 +51741,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51816,7 +51750,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51837,13 +51771,13 @@
         <v>1167</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>130</v>
@@ -51884,13 +51818,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2800</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51968,7 +51902,7 @@
         <v>101</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BB220" s="1">
         <v>7</v>
@@ -51977,7 +51911,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51989,10 +51923,10 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2805</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -52004,13 +51938,13 @@
         <v>159</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BS220" s="3">
         <v>37513</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52028,19 +51962,19 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE220" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="CG220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -52078,13 +52012,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -52165,7 +52099,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52177,10 +52111,10 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -52192,13 +52126,13 @@
         <v>102</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BS221" s="3">
         <v>41024</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52216,19 +52150,19 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="CG221" s="1" t="s">
+      <c r="CH221" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="CH221" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52266,13 +52200,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52305,7 +52239,7 @@
         <v>106</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2019</v>
@@ -52329,28 +52263,28 @@
         <v>110</v>
       </c>
       <c r="AQ222" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AR222" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS222" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT222" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU222" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV222" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY222" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ222" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="AR222" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS222" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT222" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU222" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV222" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY222" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ222" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="BB222" s="1">
         <v>7</v>
@@ -52359,7 +52293,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52371,7 +52305,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>2034</v>
@@ -52386,13 +52320,13 @@
         <v>119</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BS222" s="3">
         <v>34808</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52410,16 +52344,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>2040</v>
@@ -52460,13 +52394,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52541,7 +52475,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="BB223" s="1">
         <v>7</v>
@@ -52550,7 +52484,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52562,10 +52496,10 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="BI223" s="1" t="s">
         <v>2843</v>
-      </c>
-      <c r="BI223" s="1" t="s">
-        <v>2844</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52577,13 +52511,13 @@
         <v>102</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="BS223" s="3">
         <v>37336</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52601,19 +52535,19 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="CG223" s="1" t="s">
+      <c r="CH223" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52651,13 +52585,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52735,7 +52669,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="BB224" s="1">
         <v>7</v>
@@ -52744,7 +52678,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52756,10 +52690,10 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="BI224" s="1" t="s">
         <v>2857</v>
-      </c>
-      <c r="BI224" s="1" t="s">
-        <v>2858</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52768,7 +52702,7 @@
         <v>105</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52786,19 +52720,19 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="CE224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="CG224" s="1" t="s">
+      <c r="CH224" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="CH224" s="1" t="s">
-        <v>2864</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52836,13 +52770,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2866</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2867</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52926,7 +52860,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52938,7 +52872,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>118</v>
@@ -52947,7 +52881,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52965,16 +52899,16 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="CD225" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="CD225" s="1" t="s">
+      <c r="CE225" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CG225" s="1" t="s">
         <v>2873</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2874</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>130</v>
@@ -52997,7 +52931,7 @@
         <v>90</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>92</v>
@@ -53009,16 +52943,16 @@
         <v>94</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2878</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>110</v>
@@ -53087,7 +53021,7 @@
         <v>0</v>
       </c>
       <c r="BZ226" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="CA226" s="1" t="s">
         <v>124</v>
@@ -53099,7 +53033,7 @@
         <v>1287</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="227" spans="1:87" x14ac:dyDescent="0.25">
@@ -53134,13 +53068,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2881</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -53175,12 +53109,7 @@
       <c r="AA227" s="1">
         <v>0</v>
       </c>
-      <c r="AC227" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD227" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC227" s="3"/>
       <c r="AF227" s="1" t="s">
         <v>106</v>
       </c>
@@ -53230,7 +53159,7 @@
         <v>101</v>
       </c>
       <c r="AZ227" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BB227" s="1">
         <v>7</v>
@@ -53239,7 +53168,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53251,10 +53180,10 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53263,7 +53192,7 @@
         <v>105</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53287,16 +53216,16 @@
         <v>1220</v>
       </c>
       <c r="CD227" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="CE227" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="CG227" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="CE227" s="1" t="s">
+      <c r="CH227" s="1" t="s">
         <v>2890</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="CH227" s="1" t="s">
-        <v>2892</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53334,10 +53263,10 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>110</v>
@@ -53361,7 +53290,7 @@
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>61</v>
@@ -53406,7 +53335,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53418,7 +53347,7 @@
         <v>1287</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="229" spans="1:87" x14ac:dyDescent="0.25">
@@ -53453,10 +53382,10 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>110</v>
@@ -53543,7 +53472,7 @@
         <v>1287</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="230" spans="1:87" x14ac:dyDescent="0.25">
@@ -53560,7 +53489,7 @@
         <v>90</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>92</v>
@@ -53572,16 +53501,16 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>110</v>
@@ -53650,7 +53579,7 @@
         <v>0</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>124</v>
@@ -53662,7 +53591,7 @@
         <v>1287</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="231" spans="1:87" x14ac:dyDescent="0.25">
@@ -53697,10 +53626,10 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>110</v>
@@ -53724,7 +53653,7 @@
         <v>106</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>378</v>
@@ -53781,7 +53710,7 @@
         <v>1287</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="232" spans="1:87" x14ac:dyDescent="0.25">
@@ -53816,10 +53745,10 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>110</v>
@@ -53843,7 +53772,7 @@
         <v>106</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>378</v>
@@ -53900,7 +53829,7 @@
         <v>1287</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="233" spans="1:87" x14ac:dyDescent="0.25">
@@ -53935,10 +53864,10 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>110</v>
@@ -53962,7 +53891,7 @@
         <v>106</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>378</v>
@@ -54019,7 +53948,7 @@
         <v>1287</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -54054,10 +53983,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>110</v>
@@ -54081,7 +54010,7 @@
         <v>106</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>378</v>
@@ -54138,7 +54067,7 @@
         <v>1287</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -54173,10 +54102,10 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>110</v>
@@ -54257,7 +54186,7 @@
         <v>1287</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54292,10 +54221,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>110</v>
@@ -54376,7 +54305,7 @@
         <v>1287</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54411,10 +54340,10 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>110</v>
@@ -54495,7 +54424,7 @@
         <v>1287</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -54530,10 +54459,10 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>110</v>
@@ -54614,7 +54543,7 @@
         <v>1287</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -54649,13 +54578,13 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2918</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2920</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54684,12 +54613,7 @@
       <c r="AA239" s="1">
         <v>0</v>
       </c>
-      <c r="AC239" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD239" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC239" s="3"/>
       <c r="AF239" s="1" t="s">
         <v>106</v>
       </c>
@@ -54742,7 +54666,7 @@
         <v>19</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -54754,7 +54678,7 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>382</v>
@@ -54769,13 +54693,13 @@
         <v>102</v>
       </c>
       <c r="BR239" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BS239" s="3">
         <v>36306</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -54793,16 +54717,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="CE239" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CG239" s="1" t="s">
         <v>2926</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>390</v>
@@ -54843,13 +54767,13 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="N240" s="1" t="s">
         <v>2929</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2931</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54878,12 +54802,7 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>106</v>
       </c>
@@ -54939,7 +54858,7 @@
         <v>19</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -54951,7 +54870,7 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
@@ -54960,7 +54879,7 @@
         <v>105</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -54978,16 +54897,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55028,13 +54947,13 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N241" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55066,12 +54985,7 @@
       <c r="AB241" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC241" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD241" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC241" s="3"/>
       <c r="AF241" s="1" t="s">
         <v>106</v>
       </c>
@@ -55124,7 +55038,7 @@
         <v>19</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>113</v>
@@ -55136,7 +55050,7 @@
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BI241" s="1" t="s">
         <v>1177</v>
@@ -55151,13 +55065,13 @@
         <v>102</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BS241" s="3">
         <v>38234</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55175,16 +55089,16 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>1183</v>
@@ -55225,13 +55139,13 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N242" s="1" t="s">
         <v>2948</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2950</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55260,12 +55174,7 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>106</v>
       </c>
@@ -55321,7 +55230,7 @@
         <v>19</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -55333,7 +55242,7 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="BI242" s="1" t="s">
         <v>968</v>
@@ -55345,7 +55254,7 @@
         <v>105</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55363,16 +55272,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="CD242" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="CD242" s="1" t="s">
+      <c r="CG242" s="1" t="s">
         <v>2955</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="CG242" s="1" t="s">
-        <v>2957</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>974</v>
@@ -55413,13 +55322,13 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="N243" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2960</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55451,12 +55360,7 @@
       <c r="AB243" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AE243" s="3">
         <v>43611</v>
       </c>
@@ -55515,13 +55419,13 @@
         <v>19</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -55530,7 +55434,7 @@
         <v>105</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -55548,16 +55452,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="CD243" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="CE243" s="1" t="s">
         <v>2964</v>
       </c>
-      <c r="CD243" s="1" t="s">
+      <c r="CG243" s="1" t="s">
         <v>2965</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="CG243" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -55598,13 +55502,13 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="N244" s="1" t="s">
         <v>2968</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2970</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55633,12 +55537,7 @@
       <c r="AA244" s="1">
         <v>0</v>
       </c>
-      <c r="AC244" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD244" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC244" s="3"/>
       <c r="AF244" s="1" t="s">
         <v>106</v>
       </c>
@@ -55691,7 +55590,7 @@
         <v>19</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -55703,10 +55602,10 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
@@ -55718,13 +55617,13 @@
         <v>219</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="BS244" s="3">
         <v>37069</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -55745,16 +55644,16 @@
         <v>773</v>
       </c>
       <c r="CD244" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="CE244" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="CG244" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="CE244" s="1" t="s">
+      <c r="CH244" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="CG244" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="CH244" s="1" t="s">
-        <v>2979</v>
       </c>
       <c r="CI244" s="1" t="s">
         <v>130</v>
@@ -55792,13 +55691,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>2980</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2982</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55827,12 +55726,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>106</v>
       </c>
@@ -55888,7 +55782,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -55900,7 +55794,7 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="BI245" s="1" t="s">
         <v>968</v>
@@ -55912,7 +55806,7 @@
         <v>105</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55930,16 +55824,16 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2986</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CG245" s="1" t="s">
         <v>2987</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="CG245" s="1" t="s">
-        <v>2989</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>974</v>
@@ -55980,13 +55874,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>2990</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2992</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56022,7 +55916,7 @@
         <v>43403</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>106</v>
@@ -56073,7 +55967,7 @@
         <v>101</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="BB246" s="1">
         <v>7</v>
@@ -56082,7 +55976,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -56094,7 +55988,7 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -56103,7 +55997,7 @@
         <v>105</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56121,16 +56015,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>2115</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56171,13 +56065,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>3001</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56206,12 +56100,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>3004</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>106</v>
       </c>
@@ -56258,7 +56147,7 @@
         <v>101</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BB247" s="1">
         <v>7</v>
@@ -56267,7 +56156,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -56279,13 +56168,13 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BI247" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BJ247" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
@@ -56297,13 +56186,13 @@
         <v>219</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BS247" s="3">
         <v>35125</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56321,22 +56210,22 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE247" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="CG247" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="CH247" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="CI247" s="1" t="s">
         <v>3013</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="CH247" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="CI247" s="1" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="248" spans="1:87" x14ac:dyDescent="0.25">
@@ -56371,13 +56260,13 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56461,7 +56350,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
@@ -56470,7 +56359,7 @@
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56488,13 +56377,13 @@
         <v>92</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CG248" s="1" t="s">
         <v>130</v>
@@ -56538,13 +56427,13 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56628,7 +56517,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
@@ -56637,7 +56526,7 @@
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56658,10 +56547,10 @@
         <v>566</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CG249" s="1" t="s">
         <v>130</v>
@@ -56705,13 +56594,13 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56744,7 +56633,7 @@
         <v>106</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="AH250" s="1" t="s">
         <v>2258</v>
@@ -56795,7 +56684,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
@@ -56807,7 +56696,7 @@
         <v>159</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56825,13 +56714,13 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>995</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CG250" s="1" t="s">
         <v>130</v>
@@ -56875,13 +56764,13 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56968,7 +56857,7 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
@@ -56977,7 +56866,7 @@
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56986,7 +56875,7 @@
         <v>0</v>
       </c>
       <c r="BZ251" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="CA251" s="1" t="s">
         <v>124</v>
@@ -56995,13 +56884,13 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CG251" s="1" t="s">
         <v>130</v>
@@ -57039,7 +56928,7 @@
         <v>94</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>96</v>
@@ -57048,10 +56937,10 @@
         <v>250</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N252" s="1" t="s">
         <v>252</v>
@@ -57081,7 +56970,7 @@
         <v>42582</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>106</v>
@@ -57138,13 +57027,13 @@
         <v>0</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BI252" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -57186,10 +57075,10 @@
         <v>262</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -57209,7 +57098,7 @@
         <v>228</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>92</v>
@@ -57227,16 +57116,16 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="Q253" s="3">
         <v>17060</v>
@@ -57269,13 +57158,13 @@
         <v>42628</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>138</v>
@@ -57320,22 +57209,22 @@
         <v>101</v>
       </c>
       <c r="AZ253" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="BB253" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC253" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD253" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="BH253" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="BI253" s="1" t="s">
         <v>3063</v>
-      </c>
-      <c r="BB253" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC253" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD253" s="1" t="s">
-        <v>3064</v>
-      </c>
-      <c r="BH253" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="BI253" s="1" t="s">
-        <v>3066</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
@@ -57344,7 +57233,7 @@
         <v>105</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57353,7 +57242,7 @@
         <v>0</v>
       </c>
       <c r="BZ253" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CA253" s="1" t="s">
         <v>124</v>
@@ -57368,13 +57257,13 @@
         <v>126</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>130</v>
@@ -57394,7 +57283,7 @@
         <v>228</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>101</v>
@@ -57412,16 +57301,16 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="Q254" s="3">
         <v>26864</v>
@@ -57451,7 +57340,7 @@
         <v>42735</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>106</v>
@@ -57505,10 +57394,10 @@
         <v>0</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
@@ -57520,13 +57409,13 @@
         <v>219</v>
       </c>
       <c r="BR254" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BS254" s="3">
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57547,16 +57436,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="CD254" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="CG254" s="1" t="s">
         <v>3080</v>
-      </c>
-      <c r="CD254" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3082</v>
-      </c>
-      <c r="CG254" s="1" t="s">
-        <v>3083</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57597,16 +57486,16 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="Q255" s="3">
         <v>25379</v>
@@ -57636,7 +57525,7 @@
         <v>39800</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>234</v>
@@ -57690,10 +57579,10 @@
         <v>0</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
@@ -57705,13 +57594,13 @@
         <v>1716</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BS255" s="3">
         <v>35915</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57741,10 +57630,10 @@
         <v>439</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -57767,7 +57656,7 @@
         <v>90</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>101</v>
@@ -57779,22 +57668,22 @@
         <v>94</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="Q256" s="3">
         <v>17470</v>
@@ -57824,7 +57713,7 @@
         <v>43100</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>106</v>
@@ -57881,10 +57770,10 @@
         <v>0</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
@@ -57893,7 +57782,7 @@
         <v>105</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57917,16 +57806,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -57967,16 +57856,16 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="Q257" s="3">
         <v>23356</v>
@@ -58003,7 +57892,7 @@
         <v>43105</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>106</v>
@@ -58057,10 +57946,10 @@
         <v>0</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -58072,13 +57961,13 @@
         <v>102</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BS257" s="3">
         <v>34412</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58096,16 +57985,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CD257" s="1" t="s">
         <v>2429</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58146,16 +58035,16 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="Q258" s="3">
         <v>17726</v>
@@ -58188,7 +58077,7 @@
         <v>43312</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>234</v>
@@ -58239,7 +58128,7 @@
         <v>101</v>
       </c>
       <c r="AZ258" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BB258" s="1">
         <v>0</v>
@@ -58248,10 +58137,10 @@
         <v>0</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -58260,7 +58149,7 @@
         <v>105</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58278,16 +58167,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>931</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58328,16 +58217,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="Q259" s="3">
         <v>22645</v>
@@ -58364,13 +58253,13 @@
         <v>43298</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>61</v>
@@ -58418,13 +58307,13 @@
         <v>0</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BI259" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -58433,13 +58322,13 @@
         <v>102</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BS259" s="3">
         <v>35209</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58448,7 +58337,7 @@
         <v>0</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>124</v>
@@ -58460,16 +58349,16 @@
         <v>1745</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>130</v>
@@ -58489,7 +58378,7 @@
         <v>90</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>92</v>
@@ -58501,22 +58390,22 @@
         <v>94</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="Q260" s="3">
         <v>17041</v>
@@ -58543,7 +58432,7 @@
         <v>42735</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58600,10 +58489,10 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58612,7 +58501,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58624,7 +58513,7 @@
         <v>110</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>124</v>
@@ -58633,16 +58522,16 @@
         <v>101</v>
       </c>
       <c r="CC260" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="CD260" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="CG260" s="1" t="s">
         <v>3142</v>
-      </c>
-      <c r="CD260" s="1" t="s">
-        <v>3143</v>
-      </c>
-      <c r="CE260" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="CG260" s="1" t="s">
-        <v>3145</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58683,16 +58572,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="Q261" s="3">
         <v>30147</v>
@@ -58715,17 +58604,12 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2883</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>378</v>
@@ -58773,10 +58657,10 @@
         <v>0</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -58788,13 +58672,13 @@
         <v>102</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BS261" s="3">
         <v>37124</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58812,16 +58696,16 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58862,16 +58746,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="Q262" s="3">
         <v>17821</v>
@@ -58907,7 +58791,7 @@
         <v>43388</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>106</v>
@@ -58958,7 +58842,7 @@
         <v>101</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BB262" s="1">
         <v>0</v>
@@ -58967,10 +58851,10 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -58979,7 +58863,7 @@
         <v>105</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58997,16 +58881,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CE262" s="1" t="s">
         <v>513</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59020,10 +58904,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1291</v>
@@ -59038,7 +58922,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1291</v>
@@ -59047,13 +58931,13 @@
         <v>802</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59104,7 +58988,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59140,7 +59024,7 @@
         <v>19</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BE263" s="1" t="s">
         <v>113</v>
@@ -59152,13 +59036,13 @@
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59185,10 +59069,10 @@
         <v>1115</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59226,16 +59110,16 @@
         <v>1624</v>
       </c>
       <c r="J264" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>3177</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>3180</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59322,7 +59206,7 @@
         <v>19</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
@@ -59331,7 +59215,7 @@
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59340,7 +59224,7 @@
         <v>0</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>124</v>
@@ -59352,10 +59236,10 @@
         <v>1281</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CG264" s="1" t="s">
         <v>130</v>
@@ -59372,10 +59256,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1291</v>
@@ -59390,7 +59274,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1291</v>
@@ -59399,13 +59283,13 @@
         <v>802</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -59456,7 +59340,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59492,7 +59376,7 @@
         <v>19</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BE265" s="1" t="s">
         <v>113</v>
@@ -59504,13 +59388,13 @@
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59531,16 +59415,16 @@
         <v>92</v>
       </c>
       <c r="CC265" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="CE265" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="CG265" s="1" t="s">
         <v>3193</v>
-      </c>
-      <c r="CD265" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="CG265" s="1" t="s">
-        <v>3196</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59554,10 +59438,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1291</v>
@@ -59572,7 +59456,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1291</v>
@@ -59581,13 +59465,13 @@
         <v>802</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -59674,7 +59558,7 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BE266" s="1" t="s">
         <v>113</v>
@@ -59686,13 +59570,13 @@
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59713,7 +59597,7 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>605</v>
@@ -59722,7 +59606,7 @@
         <v>513</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59736,10 +59620,10 @@
         <v>87</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1291</v>
@@ -59754,7 +59638,7 @@
         <v>93</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1291</v>
@@ -59763,13 +59647,13 @@
         <v>802</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -59823,7 +59707,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59859,7 +59743,7 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BE267" s="1" t="s">
         <v>113</v>
@@ -59871,13 +59755,13 @@
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59901,13 +59785,13 @@
         <v>497</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -59921,10 +59805,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1291</v>
@@ -59939,7 +59823,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1291</v>
@@ -59948,13 +59832,13 @@
         <v>802</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -60041,7 +59925,7 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BE268" s="1" t="s">
         <v>113</v>
@@ -60053,13 +59937,13 @@
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60080,16 +59964,16 @@
         <v>101</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CD268" s="1" t="s">
         <v>616</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60103,10 +59987,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1291</v>
@@ -60121,7 +60005,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1291</v>
@@ -60130,13 +60014,13 @@
         <v>802</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60172,7 +60056,7 @@
         <v>106</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="AH269" s="1" t="s">
         <v>1293</v>
@@ -60190,7 +60074,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60226,7 +60110,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BE269" s="1" t="s">
         <v>113</v>
@@ -60238,13 +60122,13 @@
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60265,16 +60149,16 @@
         <v>101</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60288,10 +60172,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1291</v>
@@ -60306,7 +60190,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1291</v>
@@ -60315,13 +60199,13 @@
         <v>802</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -60375,7 +60259,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60411,7 +60295,7 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BE270" s="1" t="s">
         <v>113</v>
@@ -60423,13 +60307,13 @@
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60453,13 +60337,13 @@
         <v>1023</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60473,10 +60357,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1291</v>
@@ -60491,7 +60375,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1291</v>
@@ -60500,13 +60384,13 @@
         <v>802</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -60560,7 +60444,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60596,7 +60480,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60608,13 +60492,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60641,10 +60525,10 @@
         <v>2228</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60658,10 +60542,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1291</v>
@@ -60676,7 +60560,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1291</v>
@@ -60685,13 +60569,13 @@
         <v>802</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="L272" s="1" t="s">
         <v>2372</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60727,7 +60611,7 @@
         <v>106</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="AH272" s="1" t="s">
         <v>1293</v>
@@ -60742,7 +60626,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60775,19 +60659,19 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60805,16 +60689,16 @@
         <v>101</v>
       </c>
       <c r="CC272" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="CD272" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="CG272" s="1" t="s">
         <v>3258</v>
-      </c>
-      <c r="CD272" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="CG272" s="1" t="s">
-        <v>3261</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60828,10 +60712,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1291</v>
@@ -60846,7 +60730,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1291</v>
@@ -60855,19 +60739,19 @@
         <v>802</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="L273" s="1" t="s">
         <v>2382</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="Q273" s="3">
         <v>16452</v>
@@ -60945,19 +60829,19 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60978,16 +60862,16 @@
         <v>2297</v>
       </c>
       <c r="CC273" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="CD273" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="CG273" s="1" t="s">
         <v>3268</v>
-      </c>
-      <c r="CD273" s="1" t="s">
-        <v>3269</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3270</v>
-      </c>
-      <c r="CG273" s="1" t="s">
-        <v>3271</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61001,10 +60885,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1291</v>
@@ -61019,7 +60903,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1291</v>
@@ -61028,13 +60912,13 @@
         <v>802</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -61118,19 +61002,19 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61151,13 +61035,13 @@
         <v>1234</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61171,10 +61055,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1291</v>
@@ -61189,7 +61073,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1291</v>
@@ -61198,13 +61082,13 @@
         <v>802</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -61255,7 +61139,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61291,7 +61175,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -61303,13 +61187,13 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -61330,16 +61214,16 @@
         <v>92</v>
       </c>
       <c r="CC275" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -61353,10 +61237,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1291</v>
@@ -61371,7 +61255,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1291</v>
@@ -61380,13 +61264,13 @@
         <v>802</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
@@ -61440,7 +61324,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61476,7 +61360,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -61488,13 +61372,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61515,16 +61399,16 @@
         <v>101</v>
       </c>
       <c r="CC276" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="CD276" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="CE276" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="CG276" s="1" t="s">
         <v>3296</v>
-      </c>
-      <c r="CD276" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="CE276" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="CG276" s="1" t="s">
-        <v>3299</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61538,10 +61422,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1291</v>
@@ -61556,7 +61440,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1291</v>
@@ -61565,13 +61449,13 @@
         <v>802</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61625,7 +61509,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61661,7 +61545,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>113</v>
@@ -61673,13 +61557,13 @@
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61700,16 +61584,16 @@
         <v>101</v>
       </c>
       <c r="CC277" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="CD277" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="CE277" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="CG277" s="1" t="s">
         <v>3306</v>
-      </c>
-      <c r="CD277" s="1" t="s">
-        <v>3307</v>
-      </c>
-      <c r="CE277" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="CG277" s="1" t="s">
-        <v>3309</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61723,10 +61607,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1291</v>
@@ -61741,7 +61625,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1291</v>
@@ -61750,13 +61634,13 @@
         <v>802</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
@@ -61843,7 +61727,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>113</v>
@@ -61855,13 +61739,13 @@
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61882,16 +61766,16 @@
         <v>101</v>
       </c>
       <c r="CC278" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61905,10 +61789,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1291</v>
@@ -61923,7 +61807,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1291</v>
@@ -61932,13 +61816,13 @@
         <v>802</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
@@ -61992,7 +61876,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -62028,7 +61912,7 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BE279" s="1" t="s">
         <v>113</v>
@@ -62040,19 +61924,19 @@
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW279" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BX279" s="1">
         <v>0</v>
@@ -62070,16 +61954,16 @@
         <v>101</v>
       </c>
       <c r="CC279" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="CD279" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="CG279" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -62093,10 +61977,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1291</v>
@@ -62111,7 +61995,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1291</v>
@@ -62120,13 +62004,13 @@
         <v>802</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -62177,7 +62061,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -62213,7 +62097,7 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BE280" s="1" t="s">
         <v>113</v>
@@ -62225,13 +62109,13 @@
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -62252,16 +62136,16 @@
         <v>101</v>
       </c>
       <c r="CC280" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="CD280" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="CE280" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="CG280" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -62275,10 +62159,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1291</v>
@@ -62293,7 +62177,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1291</v>
@@ -62302,13 +62186,13 @@
         <v>802</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -62335,7 +62219,7 @@
         <v>0</v>
       </c>
       <c r="AG281" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="AH281" s="1" t="s">
         <v>378</v>
@@ -62350,7 +62234,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62380,7 +62264,7 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="BE281" s="1" t="s">
         <v>113</v>
@@ -62392,13 +62276,13 @@
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -62416,16 +62300,16 @@
         <v>101</v>
       </c>
       <c r="CC281" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="CD281" s="1" t="s">
         <v>307</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="CG281" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -62439,10 +62323,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1291</v>
@@ -62457,7 +62341,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1291</v>
@@ -62466,13 +62350,13 @@
         <v>802</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
@@ -62556,7 +62440,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>113</v>
@@ -62568,13 +62452,13 @@
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
@@ -62592,16 +62476,16 @@
         <v>101</v>
       </c>
       <c r="CC282" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="CD282" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="CG282" s="1" t="s">
         <v>3354</v>
-      </c>
-      <c r="CD282" s="1" t="s">
-        <v>3355</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3356</v>
-      </c>
-      <c r="CG282" s="1" t="s">
-        <v>3357</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62615,10 +62499,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1291</v>
@@ -62633,7 +62517,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1291</v>
@@ -62642,13 +62526,13 @@
         <v>802</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
@@ -62735,7 +62619,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>113</v>
@@ -62747,13 +62631,13 @@
         <v>115</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>122</v>
@@ -62771,16 +62655,16 @@
         <v>101</v>
       </c>
       <c r="CC283" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="CD283" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="CG283" s="1" t="s">
         <v>3364</v>
-      </c>
-      <c r="CD283" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="CG283" s="1" t="s">
-        <v>3367</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62794,10 +62678,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1291</v>
@@ -62812,7 +62696,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1291</v>
@@ -62821,13 +62705,13 @@
         <v>802</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
@@ -62836,7 +62720,7 @@
         <v>101</v>
       </c>
       <c r="Q284" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="R284" s="1" t="s">
         <v>136</v>
@@ -62878,7 +62762,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62911,7 +62795,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>113</v>
@@ -62923,13 +62807,13 @@
         <v>115</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>122</v>
@@ -62947,16 +62831,16 @@
         <v>101</v>
       </c>
       <c r="CC284" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="CD284" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="CE284" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="CG284" s="1" t="s">
         <v>3376</v>
-      </c>
-      <c r="CD284" s="1" t="s">
-        <v>3377</v>
-      </c>
-      <c r="CE284" s="1" t="s">
-        <v>3378</v>
-      </c>
-      <c r="CG284" s="1" t="s">
-        <v>3379</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -62966,6 +62850,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI284" xr:uid="{BEFA306C-6047-41CD-B5D5-7F6EA8A0DAEE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>